--- a/spårväxel_LCC/LCC_Kimstad_april23.xlsx
+++ b/spårväxel_LCC/LCC_Kimstad_april23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Desktop\Mistra-infra_maint\LCC-spårväxel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AbdouAA\Work Folders\Documents\GitHub\mistra-inframaint\spårväxel_LCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7FF19-AD49-4775-B622-993770089B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E0372-F3BF-4309-89D4-4B210246700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="807" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-23040" yWindow="432" windowWidth="21624" windowHeight="11304" tabRatio="807" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maintenance strategy" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Results - comparison" sheetId="7" r:id="rId7"/>
     <sheet name="Sensitivity analysis" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9353,7 +9353,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D71" sqref="D71:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16931,8 +16931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99F912E-9A5E-4B5D-AB13-1C36F6DCF2C4}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21994,7 +21994,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
